--- a/Documents/Table_List/Prefab_Table.xlsx
+++ b/Documents/Table_List/Prefab_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C44CAD-2198-4B25-A99E-700111196F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE7EE20-02BE-4A5C-B706-BD1F0FD9ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="1" r:id="rId1"/>
@@ -3550,65 +3550,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3706,12 +3661,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3729,6 +3678,57 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4077,178 +4077,178 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="9">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12" t="s">
+      <c r="H5" s="47"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="9">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="9">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="9">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="15" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="9">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
@@ -4266,149 +4266,165 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="9">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="12" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="9">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="12" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="9">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="12" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="9">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="15" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="9">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="12" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G12:I12"/>
@@ -4421,22 +4437,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4463,4318 +4463,4318 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="28">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="15">
         <v>900001</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="16">
         <v>2.5</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="28">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="15">
         <v>900002</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="28">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="15">
         <v>900003</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="16">
         <v>3</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="28">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="15">
         <v>900004</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="28">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="15">
         <v>900005</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="28">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="15">
         <v>900006</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="16">
         <v>0.9</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="28">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="15">
         <v>900007</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="16">
         <v>1.5</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="28">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="15">
         <v>900008</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="16">
         <v>1.3</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="28">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="15">
         <v>900009</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="16">
         <v>1.5</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="28">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="15">
         <v>900010</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="28">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="15">
         <v>900011</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="16">
         <v>1.5</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="28">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="15">
         <v>900012</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="16">
         <v>1</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="28">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="15">
         <v>900013</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="16">
         <v>1.2</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="28">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="15">
         <v>900014</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="16">
         <v>0.9</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="28">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="15">
         <v>900015</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="16">
         <v>0.65</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="28">
+      <c r="B21" s="13">
         <v>16</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="15">
         <v>900016</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="16">
         <v>1.2</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="28">
+      <c r="B22" s="13">
         <v>17</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="15">
         <v>900017</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="16">
         <v>1.6</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="28">
+      <c r="B23" s="13">
         <v>18</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="15">
         <v>900018</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="16">
         <v>1.3</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="28">
+      <c r="B24" s="13">
         <v>19</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="15">
         <v>900019</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="28">
+      <c r="B25" s="13">
         <v>20</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="15">
         <v>900020</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="16">
         <v>0.7</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="28">
+      <c r="B26" s="13">
         <v>21</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="15">
         <v>900021</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="28">
+      <c r="B27" s="13">
         <v>22</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="15">
         <v>900022</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="16">
         <v>1.3</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="28">
+      <c r="B28" s="13">
         <v>23</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="15">
         <v>900023</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="16">
         <v>1.8</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="28">
+      <c r="B29" s="13">
         <v>24</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="15">
         <v>900024</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="28">
+      <c r="B30" s="13">
         <v>25</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="15">
         <v>900025</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="16">
         <v>1.5</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="28">
+      <c r="B31" s="13">
         <v>26</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="15">
         <v>900026</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="16">
         <v>1.3</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="28">
+      <c r="B32" s="13">
         <v>27</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="15">
         <v>900027</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="16">
         <v>1.4</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="28">
+      <c r="B33" s="13">
         <v>28</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="15">
         <v>900028</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="16">
         <v>0.25</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="33"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="28">
+      <c r="B34" s="13">
         <v>29</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="15">
         <v>900029</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="16">
         <v>1.5</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="28">
+      <c r="B35" s="13">
         <v>30</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="15">
         <v>900030</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="16">
         <v>1.3</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="33"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="28">
+      <c r="B36" s="13">
         <v>31</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="15">
         <v>900031</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="16">
         <v>1</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="28">
+      <c r="B37" s="13">
         <v>32</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="15">
         <v>900032</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="16">
         <v>1</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="33"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="28">
+      <c r="B38" s="13">
         <v>33</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="15">
         <v>900033</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="16">
         <v>0.9</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="28">
+      <c r="B39" s="13">
         <v>34</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="15">
         <v>900034</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="16">
         <v>1.5</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="28">
+      <c r="B40" s="13">
         <v>35</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="15">
         <v>900035</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="16">
         <v>1.3</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="28">
+      <c r="B41" s="13">
         <v>36</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="15">
         <v>900036</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="16">
         <v>1.5</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="33"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="28">
+      <c r="B42" s="13">
         <v>37</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="15">
         <v>900037</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="16">
         <v>2</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="28">
+      <c r="B43" s="13">
         <v>38</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="15">
         <v>900038</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="16">
         <v>1.5</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="33"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="28">
+      <c r="B44" s="13">
         <v>39</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="15">
         <v>900039</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="16">
         <v>1</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="33"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="28">
+      <c r="B45" s="13">
         <v>40</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="15">
         <v>900040</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="16">
         <v>1.2</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="33"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="28">
+      <c r="B46" s="13">
         <v>41</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="15">
         <v>900041</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="16">
         <v>0.9</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="33"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="28">
+      <c r="B47" s="13">
         <v>42</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="15">
         <v>900042</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="16">
         <v>0.65</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="33"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="28">
+      <c r="B48" s="13">
         <v>43</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="15">
         <v>900043</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="16">
         <v>1.2</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="33"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="28">
+      <c r="B49" s="13">
         <v>44</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="15">
         <v>900044</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="16">
         <v>1.6</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="33"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="28">
+      <c r="B50" s="13">
         <v>45</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="15">
         <v>900045</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="16">
         <v>1.3</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="33"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="28">
+      <c r="B51" s="13">
         <v>46</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="15">
         <v>900046</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="16">
         <v>1</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="33"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="28">
+      <c r="B52" s="13">
         <v>47</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="15">
         <v>900047</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="16">
         <v>0.7</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="33"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="28">
+      <c r="B53" s="13">
         <v>48</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="15">
         <v>900048</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="33"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="28">
+      <c r="B54" s="13">
         <v>49</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="15">
         <v>900049</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="16">
         <v>1.3</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G54" s="33"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="28">
+      <c r="B55" s="13">
         <v>50</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="15">
         <v>900050</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="16">
         <v>1.8</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="G55" s="33"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="28">
+      <c r="B56" s="13">
         <v>51</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="15">
         <v>900051</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G56" s="33"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="28">
+      <c r="B57" s="13">
         <v>52</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="15">
         <v>900052</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="16">
         <v>1.5</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="33"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="28">
+      <c r="B58" s="13">
         <v>53</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="15">
         <v>900053</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="16">
         <v>1.3</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="33"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="28">
+      <c r="B59" s="13">
         <v>54</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="15">
         <v>900054</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="16">
         <v>1.4</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G59" s="33"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="28">
+      <c r="B60" s="13">
         <v>55</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="15">
         <v>900055</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="16">
         <v>0.25</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G60" s="33"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="28">
+      <c r="B61" s="13">
         <v>56</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="15">
         <v>900056</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="16">
         <v>1.5</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="33"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="28">
+      <c r="B62" s="13">
         <v>57</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="15">
         <v>900057</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="16">
         <v>1.3</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="33"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="28">
+      <c r="B63" s="13">
         <v>58</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="15">
         <v>900058</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="16">
         <v>1</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="33"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="28">
+      <c r="B64" s="13">
         <v>59</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="30">
+      <c r="D64" s="15">
         <v>900059</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="16">
         <v>1</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="33"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="28">
+      <c r="B65" s="13">
         <v>60</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="30">
+      <c r="D65" s="15">
         <v>900060</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="16">
         <v>0.9</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G65" s="33"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="28">
+      <c r="B66" s="13">
         <v>61</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="30">
+      <c r="D66" s="15">
         <v>900061</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="16">
         <v>1.5</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G66" s="33"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="28">
+      <c r="B67" s="13">
         <v>62</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D67" s="15">
         <v>900062</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="16">
         <v>1.3</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G67" s="33"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="28">
+      <c r="B68" s="13">
         <v>63</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="15">
         <v>900063</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="16">
         <v>1.5</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="33"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="28">
+      <c r="B69" s="13">
         <v>64</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="15">
         <v>900064</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="16">
         <v>2</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G69" s="33"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="28">
+      <c r="B70" s="13">
         <v>65</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="15">
         <v>900065</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="16">
         <v>1.5</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F70" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G70" s="33"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="28">
+      <c r="B71" s="13">
         <v>66</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71" s="15">
         <v>900066</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="F71" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="33"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="28">
+      <c r="B72" s="13">
         <v>67</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72" s="15">
         <v>900067</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="16">
         <v>1.2</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="33"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="28">
+      <c r="B73" s="13">
         <v>68</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D73" s="15">
         <v>900068</v>
       </c>
-      <c r="E73" s="31">
+      <c r="E73" s="16">
         <v>0.9</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G73" s="33"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="28">
+      <c r="B74" s="13">
         <v>69</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D74" s="15">
         <v>900069</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="16">
         <v>0.65</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="F74" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G74" s="33"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="28">
+      <c r="B75" s="13">
         <v>70</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="15">
         <v>900070</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="16">
         <v>1.2</v>
       </c>
-      <c r="F75" s="32" t="s">
+      <c r="F75" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="33"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="28">
+      <c r="B76" s="13">
         <v>71</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="15">
         <v>900071</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="16">
         <v>1.6</v>
       </c>
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G76" s="33"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="28">
+      <c r="B77" s="13">
         <v>72</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="15">
         <v>900072</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="16">
         <v>1.3</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="F77" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="33"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="28">
+      <c r="B78" s="13">
         <v>73</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78" s="15">
         <v>900073</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E78" s="16">
         <v>1</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G78" s="33"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="28">
+      <c r="B79" s="13">
         <v>74</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="30">
+      <c r="D79" s="15">
         <v>900074</v>
       </c>
-      <c r="E79" s="31">
+      <c r="E79" s="16">
         <v>0.7</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G79" s="33"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="28">
+      <c r="B80" s="13">
         <v>75</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="30">
+      <c r="D80" s="15">
         <v>900075</v>
       </c>
-      <c r="E80" s="31">
+      <c r="E80" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="F80" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="33"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="28">
+      <c r="B81" s="13">
         <v>76</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="30">
+      <c r="D81" s="15">
         <v>900076</v>
       </c>
-      <c r="E81" s="31">
+      <c r="E81" s="16">
         <v>1.3</v>
       </c>
-      <c r="F81" s="32" t="s">
+      <c r="F81" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G81" s="33"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="28">
+      <c r="B82" s="13">
         <v>77</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="15">
         <v>900077</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E82" s="16">
         <v>1.8</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G82" s="33"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="28">
+      <c r="B83" s="13">
         <v>78</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="30">
+      <c r="D83" s="15">
         <v>900078</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G83" s="33"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="28">
+      <c r="B84" s="13">
         <v>79</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="30">
+      <c r="D84" s="15">
         <v>900079</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="16">
         <v>1.5</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G84" s="33"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="28">
+      <c r="B85" s="13">
         <v>80</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="30">
+      <c r="D85" s="15">
         <v>900080</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="16">
         <v>1.3</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G85" s="33"/>
+      <c r="G85" s="18"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="28">
+      <c r="B86" s="13">
         <v>81</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="30">
+      <c r="D86" s="15">
         <v>900081</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="16">
         <v>1.4</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="F86" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G86" s="33"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="28">
+      <c r="B87" s="13">
         <v>82</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="30">
+      <c r="D87" s="15">
         <v>900082</v>
       </c>
-      <c r="E87" s="31">
+      <c r="E87" s="16">
         <v>0.25</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G87" s="33"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="28">
+      <c r="B88" s="13">
         <v>83</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="15">
         <v>900083</v>
       </c>
-      <c r="E88" s="31">
+      <c r="E88" s="16">
         <v>1.5</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G88" s="33"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="28">
+      <c r="B89" s="13">
         <v>84</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89" s="15">
         <v>900084</v>
       </c>
-      <c r="E89" s="31">
+      <c r="E89" s="16">
         <v>1.3</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G89" s="33"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="28">
+      <c r="B90" s="13">
         <v>85</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D90" s="15">
         <v>900085</v>
       </c>
-      <c r="E90" s="31">
+      <c r="E90" s="16">
         <v>0.7</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="F90" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G90" s="33"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="28">
+      <c r="B91" s="13">
         <v>86</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="15">
         <v>900086</v>
       </c>
-      <c r="E91" s="31">
+      <c r="E91" s="16">
         <v>0.7</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F91" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G91" s="33"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="28">
+      <c r="B92" s="13">
         <v>87</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D92" s="15">
         <v>900087</v>
       </c>
-      <c r="E92" s="31">
+      <c r="E92" s="16">
         <v>0.7</v>
       </c>
-      <c r="F92" s="37" t="s">
+      <c r="F92" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G92" s="33"/>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="28">
+      <c r="B93" s="13">
         <v>88</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93" s="15">
         <v>900088</v>
       </c>
-      <c r="E93" s="31">
+      <c r="E93" s="16">
         <v>1</v>
       </c>
-      <c r="F93" s="37" t="s">
+      <c r="F93" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G93" s="33"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="2:7" ht="27">
-      <c r="B94" s="28">
+      <c r="B94" s="13">
         <v>89</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D94" s="30">
+      <c r="D94" s="15">
         <v>900089</v>
       </c>
-      <c r="E94" s="31">
+      <c r="E94" s="16">
         <v>0.7</v>
       </c>
-      <c r="F94" s="37" t="s">
+      <c r="F94" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G94" s="33"/>
+      <c r="G94" s="18"/>
     </row>
     <row r="95" spans="2:7" ht="27">
-      <c r="B95" s="28">
+      <c r="B95" s="13">
         <v>90</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D95" s="15">
         <v>900090</v>
       </c>
-      <c r="E95" s="31">
+      <c r="E95" s="16">
         <v>0.7</v>
       </c>
-      <c r="F95" s="37" t="s">
+      <c r="F95" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G95" s="33"/>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="2:7" ht="27">
-      <c r="B96" s="28">
+      <c r="B96" s="13">
         <v>91</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D96" s="30">
+      <c r="D96" s="15">
         <v>900091</v>
       </c>
-      <c r="E96" s="31">
+      <c r="E96" s="16">
         <v>0.7</v>
       </c>
-      <c r="F96" s="37" t="s">
+      <c r="F96" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G96" s="33"/>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="2:7" ht="27">
-      <c r="B97" s="28">
+      <c r="B97" s="13">
         <v>92</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D97" s="15">
         <v>900092</v>
       </c>
-      <c r="E97" s="31">
+      <c r="E97" s="16">
         <v>1</v>
       </c>
-      <c r="F97" s="37" t="s">
+      <c r="F97" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G97" s="33"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="28">
+      <c r="B98" s="13">
         <v>93</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="30">
+      <c r="D98" s="15">
         <v>900093</v>
       </c>
-      <c r="E98" s="31">
+      <c r="E98" s="16">
         <v>0.8</v>
       </c>
-      <c r="F98" s="37" t="s">
+      <c r="F98" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G98" s="33"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="2:7" ht="27">
-      <c r="B99" s="28">
+      <c r="B99" s="13">
         <v>94</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99" s="15">
         <v>900094</v>
       </c>
-      <c r="E99" s="31">
+      <c r="E99" s="16">
         <v>0.5</v>
       </c>
-      <c r="F99" s="37" t="s">
+      <c r="F99" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G99" s="33"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="2:7" ht="27">
-      <c r="B100" s="28">
+      <c r="B100" s="13">
         <v>95</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D100" s="15">
         <v>900095</v>
       </c>
-      <c r="E100" s="31">
+      <c r="E100" s="16">
         <v>0.5</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G100" s="33"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="2:7" ht="27">
-      <c r="B101" s="28">
+      <c r="B101" s="13">
         <v>96</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D101" s="30">
+      <c r="D101" s="15">
         <v>900096</v>
       </c>
-      <c r="E101" s="31">
+      <c r="E101" s="16">
         <v>0.5</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G101" s="33"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="2:7" ht="27">
-      <c r="B102" s="28">
+      <c r="B102" s="13">
         <v>97</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D102" s="15">
         <v>900097</v>
       </c>
-      <c r="E102" s="31">
+      <c r="E102" s="16">
         <v>0.5</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G102" s="33"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="2:7" ht="27">
-      <c r="B103" s="28">
+      <c r="B103" s="13">
         <v>98</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D103" s="15">
         <v>900098</v>
       </c>
-      <c r="E103" s="31">
+      <c r="E103" s="16">
         <v>0.5</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G103" s="33"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="28">
+      <c r="B104" s="13">
         <v>99</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104" s="15">
         <v>900099</v>
       </c>
-      <c r="E104" s="31">
+      <c r="E104" s="16">
         <v>0.5</v>
       </c>
-      <c r="F104" s="37" t="s">
+      <c r="F104" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G104" s="33"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="28">
+      <c r="B105" s="13">
         <v>100</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D105" s="24">
         <v>0</v>
       </c>
-      <c r="E105" s="40">
+      <c r="E105" s="25">
         <v>1</v>
       </c>
-      <c r="F105" s="39" t="s">
+      <c r="F105" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="26" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="28">
+      <c r="B106" s="13">
         <v>101</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D106" s="39">
+      <c r="D106" s="24">
         <v>900100</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="25">
         <v>1</v>
       </c>
-      <c r="F106" s="39" t="s">
+      <c r="F106" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G106" s="33"/>
+      <c r="G106" s="18"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="28">
+      <c r="B107" s="13">
         <v>102</v>
       </c>
-      <c r="C107" s="42" t="s">
+      <c r="C107" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D107" s="39">
+      <c r="D107" s="24">
         <v>900101</v>
       </c>
-      <c r="E107" s="40">
+      <c r="E107" s="25">
         <v>0.7</v>
       </c>
-      <c r="F107" s="39" t="s">
+      <c r="F107" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G107" s="33"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="28">
+      <c r="B108" s="13">
         <v>103</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C108" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="39">
+      <c r="D108" s="24">
         <v>900102</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="25">
         <v>0.3</v>
       </c>
-      <c r="F108" s="39" t="s">
+      <c r="F108" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G108" s="33"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="28">
+      <c r="B109" s="13">
         <v>104</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="C109" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D109" s="39">
+      <c r="D109" s="24">
         <v>900103</v>
       </c>
-      <c r="E109" s="40">
+      <c r="E109" s="25">
         <v>1.5</v>
       </c>
-      <c r="F109" s="39" t="s">
+      <c r="F109" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G109" s="33"/>
+      <c r="G109" s="18"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="28">
+      <c r="B110" s="13">
         <v>105</v>
       </c>
-      <c r="C110" s="42" t="s">
+      <c r="C110" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D110" s="39">
+      <c r="D110" s="24">
         <v>900104</v>
       </c>
-      <c r="E110" s="40">
+      <c r="E110" s="25">
         <v>1</v>
       </c>
-      <c r="F110" s="39" t="s">
+      <c r="F110" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G110" s="33"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="28">
+      <c r="B111" s="13">
         <v>106</v>
       </c>
-      <c r="C111" s="42" t="s">
+      <c r="C111" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D111" s="39">
+      <c r="D111" s="24">
         <v>900105</v>
       </c>
-      <c r="E111" s="40">
+      <c r="E111" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F111" s="39" t="s">
+      <c r="F111" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G111" s="33"/>
+      <c r="G111" s="18"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="28">
+      <c r="B112" s="13">
         <v>107</v>
       </c>
-      <c r="C112" s="42" t="s">
+      <c r="C112" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D112" s="39">
+      <c r="D112" s="24">
         <v>900106</v>
       </c>
-      <c r="E112" s="40">
+      <c r="E112" s="25">
         <v>0.8</v>
       </c>
-      <c r="F112" s="39" t="s">
+      <c r="F112" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="G112" s="33"/>
+      <c r="G112" s="18"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="28">
+      <c r="B113" s="13">
         <v>108</v>
       </c>
-      <c r="C113" s="42" t="s">
+      <c r="C113" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D113" s="39">
+      <c r="D113" s="24">
         <v>900107</v>
       </c>
-      <c r="E113" s="40">
+      <c r="E113" s="25">
         <v>1</v>
       </c>
-      <c r="F113" s="39" t="s">
+      <c r="F113" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="33"/>
+      <c r="G113" s="18"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="28">
+      <c r="B114" s="13">
         <v>109</v>
       </c>
-      <c r="C114" s="42" t="s">
+      <c r="C114" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D114" s="39">
+      <c r="D114" s="24">
         <v>900108</v>
       </c>
-      <c r="E114" s="40">
+      <c r="E114" s="25">
         <v>1</v>
       </c>
-      <c r="F114" s="39" t="s">
+      <c r="F114" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="G114" s="33"/>
+      <c r="G114" s="18"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="28">
+      <c r="B115" s="13">
         <v>110</v>
       </c>
-      <c r="C115" s="42" t="s">
+      <c r="C115" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D115" s="39">
+      <c r="D115" s="24">
         <v>900109</v>
       </c>
-      <c r="E115" s="40">
+      <c r="E115" s="25">
         <v>1</v>
       </c>
-      <c r="F115" s="39" t="s">
+      <c r="F115" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G115" s="33"/>
+      <c r="G115" s="18"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="28">
+      <c r="B116" s="13">
         <v>111</v>
       </c>
-      <c r="C116" s="42" t="s">
+      <c r="C116" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D116" s="39">
+      <c r="D116" s="24">
         <v>900110</v>
       </c>
-      <c r="E116" s="40">
+      <c r="E116" s="25">
         <v>1</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G116" s="33"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="28">
+      <c r="B117" s="13">
         <v>112</v>
       </c>
-      <c r="C117" s="42" t="s">
+      <c r="C117" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D117" s="39">
+      <c r="D117" s="24">
         <v>900111</v>
       </c>
-      <c r="E117" s="40">
+      <c r="E117" s="25">
         <v>1</v>
       </c>
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G117" s="33"/>
+      <c r="G117" s="18"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="28">
+      <c r="B118" s="13">
         <v>113</v>
       </c>
-      <c r="C118" s="42" t="s">
+      <c r="C118" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D118" s="39">
+      <c r="D118" s="24">
         <v>900112</v>
       </c>
-      <c r="E118" s="40">
+      <c r="E118" s="25">
         <v>1</v>
       </c>
-      <c r="F118" s="39" t="s">
+      <c r="F118" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G118" s="33"/>
+      <c r="G118" s="18"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="28">
+      <c r="B119" s="13">
         <v>114</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="24">
         <v>900113</v>
       </c>
-      <c r="E119" s="40">
+      <c r="E119" s="25">
         <v>0.8</v>
       </c>
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G119" s="33"/>
+      <c r="G119" s="18"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="28">
+      <c r="B120" s="13">
         <v>115</v>
       </c>
-      <c r="C120" s="42" t="s">
+      <c r="C120" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D120" s="24">
         <v>900114</v>
       </c>
-      <c r="E120" s="40">
+      <c r="E120" s="25">
         <v>0.4</v>
       </c>
-      <c r="F120" s="39" t="s">
+      <c r="F120" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G120" s="33"/>
+      <c r="G120" s="18"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="28">
+      <c r="B121" s="13">
         <v>116</v>
       </c>
-      <c r="C121" s="42" t="s">
+      <c r="C121" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D121" s="39">
+      <c r="D121" s="24">
         <v>900115</v>
       </c>
-      <c r="E121" s="40">
+      <c r="E121" s="25">
         <v>1.4</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="18"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="28">
+      <c r="B122" s="13">
         <v>117</v>
       </c>
-      <c r="C122" s="42" t="s">
+      <c r="C122" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D122" s="39">
+      <c r="D122" s="24">
         <v>900116</v>
       </c>
-      <c r="E122" s="40">
+      <c r="E122" s="25">
         <v>1.3</v>
       </c>
-      <c r="F122" s="39" t="s">
+      <c r="F122" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G122" s="33"/>
+      <c r="G122" s="18"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="28">
+      <c r="B123" s="13">
         <v>118</v>
       </c>
-      <c r="C123" s="42" t="s">
+      <c r="C123" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D123" s="39">
+      <c r="D123" s="24">
         <v>900117</v>
       </c>
-      <c r="E123" s="40">
+      <c r="E123" s="25">
         <v>0.7</v>
       </c>
-      <c r="F123" s="39" t="s">
+      <c r="F123" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="G123" s="33"/>
+      <c r="G123" s="18"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="28">
+      <c r="B124" s="13">
         <v>119</v>
       </c>
-      <c r="C124" s="42" t="s">
+      <c r="C124" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D124" s="39">
+      <c r="D124" s="24">
         <v>900118</v>
       </c>
-      <c r="E124" s="40">
+      <c r="E124" s="25">
         <v>1</v>
       </c>
-      <c r="F124" s="39" t="s">
+      <c r="F124" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="G124" s="33"/>
+      <c r="G124" s="18"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="28">
+      <c r="B125" s="13">
         <v>120</v>
       </c>
-      <c r="C125" s="42" t="s">
+      <c r="C125" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D125" s="39">
+      <c r="D125" s="24">
         <v>900119</v>
       </c>
-      <c r="E125" s="40">
+      <c r="E125" s="25">
         <v>1.3</v>
       </c>
-      <c r="F125" s="39" t="s">
+      <c r="F125" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G125" s="33"/>
+      <c r="G125" s="18"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="28">
+      <c r="B126" s="13">
         <v>121</v>
       </c>
-      <c r="C126" s="42" t="s">
+      <c r="C126" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D126" s="39">
+      <c r="D126" s="24">
         <v>900120</v>
       </c>
-      <c r="E126" s="40">
+      <c r="E126" s="25">
         <v>1.2</v>
       </c>
-      <c r="F126" s="39" t="s">
+      <c r="F126" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="G126" s="33"/>
+      <c r="G126" s="18"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="28">
+      <c r="B127" s="13">
         <v>122</v>
       </c>
-      <c r="C127" s="42" t="s">
+      <c r="C127" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D127" s="39">
+      <c r="D127" s="24">
         <v>900121</v>
       </c>
-      <c r="E127" s="40">
+      <c r="E127" s="25">
         <v>1</v>
       </c>
-      <c r="F127" s="39" t="s">
+      <c r="F127" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="G127" s="33"/>
+      <c r="G127" s="18"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="28">
+      <c r="B128" s="13">
         <v>123</v>
       </c>
-      <c r="C128" s="42" t="s">
+      <c r="C128" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D128" s="39">
+      <c r="D128" s="24">
         <v>900122</v>
       </c>
-      <c r="E128" s="40">
+      <c r="E128" s="25">
         <v>0.6</v>
       </c>
-      <c r="F128" s="39" t="s">
+      <c r="F128" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="G128" s="33"/>
+      <c r="G128" s="18"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="28">
+      <c r="B129" s="13">
         <v>124</v>
       </c>
-      <c r="C129" s="42" t="s">
+      <c r="C129" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D129" s="39">
+      <c r="D129" s="24">
         <v>900123</v>
       </c>
-      <c r="E129" s="40">
+      <c r="E129" s="25">
         <v>1</v>
       </c>
-      <c r="F129" s="39" t="s">
+      <c r="F129" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="G129" s="33"/>
+      <c r="G129" s="18"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="28">
+      <c r="B130" s="13">
         <v>125</v>
       </c>
-      <c r="C130" s="42" t="s">
+      <c r="C130" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D130" s="39">
+      <c r="D130" s="24">
         <v>900124</v>
       </c>
-      <c r="E130" s="40">
+      <c r="E130" s="25">
         <v>0.6</v>
       </c>
-      <c r="F130" s="39" t="s">
+      <c r="F130" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="G130" s="33"/>
+      <c r="G130" s="18"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="28">
+      <c r="B131" s="13">
         <v>126</v>
       </c>
-      <c r="C131" s="42" t="s">
+      <c r="C131" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D131" s="39">
+      <c r="D131" s="24">
         <v>900125</v>
       </c>
-      <c r="E131" s="40">
+      <c r="E131" s="25">
         <v>1</v>
       </c>
-      <c r="F131" s="39" t="s">
+      <c r="F131" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G131" s="33"/>
+      <c r="G131" s="18"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="28">
+      <c r="B132" s="13">
         <v>127</v>
       </c>
-      <c r="C132" s="42" t="s">
+      <c r="C132" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D132" s="39">
+      <c r="D132" s="24">
         <v>900126</v>
       </c>
-      <c r="E132" s="40">
+      <c r="E132" s="25">
         <v>1</v>
       </c>
-      <c r="F132" s="39" t="s">
+      <c r="F132" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="33"/>
+      <c r="G132" s="18"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="28">
+      <c r="B133" s="13">
         <v>128</v>
       </c>
-      <c r="C133" s="42" t="s">
+      <c r="C133" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D133" s="39">
+      <c r="D133" s="24">
         <v>900127</v>
       </c>
-      <c r="E133" s="40">
+      <c r="E133" s="25">
         <v>1</v>
       </c>
-      <c r="F133" s="39" t="s">
+      <c r="F133" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="G133" s="33"/>
+      <c r="G133" s="18"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="28">
+      <c r="B134" s="13">
         <v>129</v>
       </c>
-      <c r="C134" s="42" t="s">
+      <c r="C134" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D134" s="39">
+      <c r="D134" s="24">
         <v>900128</v>
       </c>
-      <c r="E134" s="40">
+      <c r="E134" s="25">
         <v>0.6</v>
       </c>
-      <c r="F134" s="39" t="s">
+      <c r="F134" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G134" s="33"/>
+      <c r="G134" s="18"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="28">
+      <c r="B135" s="13">
         <v>130</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C135" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D135" s="39">
+      <c r="D135" s="24">
         <v>900129</v>
       </c>
-      <c r="E135" s="40">
+      <c r="E135" s="25">
         <v>1</v>
       </c>
-      <c r="F135" s="39" t="s">
+      <c r="F135" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G135" s="33"/>
+      <c r="G135" s="18"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="28">
+      <c r="B136" s="13">
         <v>131</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C136" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D136" s="39">
+      <c r="D136" s="24">
         <v>900130</v>
       </c>
-      <c r="E136" s="40">
+      <c r="E136" s="25">
         <v>1.5</v>
       </c>
-      <c r="F136" s="39" t="s">
+      <c r="F136" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="G136" s="33"/>
+      <c r="G136" s="18"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="28">
+      <c r="B137" s="13">
         <v>132</v>
       </c>
-      <c r="C137" s="42" t="s">
+      <c r="C137" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D137" s="39">
+      <c r="D137" s="24">
         <v>900131</v>
       </c>
-      <c r="E137" s="40">
+      <c r="E137" s="25">
         <v>1</v>
       </c>
-      <c r="F137" s="39" t="s">
+      <c r="F137" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="G137" s="33"/>
+      <c r="G137" s="18"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="28">
+      <c r="B138" s="13">
         <v>133</v>
       </c>
-      <c r="C138" s="42" t="s">
+      <c r="C138" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D138" s="39">
+      <c r="D138" s="24">
         <v>900132</v>
       </c>
-      <c r="E138" s="40">
+      <c r="E138" s="25">
         <v>0.6</v>
       </c>
-      <c r="F138" s="39" t="s">
+      <c r="F138" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="G138" s="33"/>
+      <c r="G138" s="18"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="28">
+      <c r="B139" s="13">
         <v>134</v>
       </c>
-      <c r="C139" s="42" t="s">
+      <c r="C139" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D139" s="39">
+      <c r="D139" s="24">
         <v>900133</v>
       </c>
-      <c r="E139" s="40">
+      <c r="E139" s="25">
         <v>0.8</v>
       </c>
-      <c r="F139" s="39" t="s">
+      <c r="F139" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="G139" s="33"/>
+      <c r="G139" s="18"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="28">
+      <c r="B140" s="13">
         <v>135</v>
       </c>
-      <c r="C140" s="42" t="s">
+      <c r="C140" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D140" s="39">
+      <c r="D140" s="24">
         <v>900134</v>
       </c>
-      <c r="E140" s="40">
+      <c r="E140" s="25">
         <v>1</v>
       </c>
-      <c r="F140" s="39" t="s">
+      <c r="F140" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="G140" s="33"/>
+      <c r="G140" s="18"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="28">
+      <c r="B141" s="13">
         <v>136</v>
       </c>
-      <c r="C141" s="42" t="s">
+      <c r="C141" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D141" s="39">
+      <c r="D141" s="24">
         <v>900135</v>
       </c>
-      <c r="E141" s="40">
+      <c r="E141" s="25">
         <v>1</v>
       </c>
-      <c r="F141" s="39" t="s">
+      <c r="F141" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G141" s="33"/>
+      <c r="G141" s="18"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="28">
+      <c r="B142" s="13">
         <v>137</v>
       </c>
-      <c r="C142" s="42" t="s">
+      <c r="C142" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D142" s="39">
+      <c r="D142" s="24">
         <v>900136</v>
       </c>
-      <c r="E142" s="40">
+      <c r="E142" s="25">
         <v>0.7</v>
       </c>
-      <c r="F142" s="39" t="s">
+      <c r="F142" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="G142" s="33"/>
+      <c r="G142" s="18"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="28">
+      <c r="B143" s="13">
         <v>138</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C143" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D143" s="39">
+      <c r="D143" s="24">
         <v>900137</v>
       </c>
-      <c r="E143" s="40">
+      <c r="E143" s="25">
         <v>0.8</v>
       </c>
-      <c r="F143" s="39" t="s">
+      <c r="F143" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G143" s="33"/>
+      <c r="G143" s="18"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="28">
+      <c r="B144" s="13">
         <v>139</v>
       </c>
-      <c r="C144" s="42" t="s">
+      <c r="C144" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D144" s="39">
+      <c r="D144" s="24">
         <v>900138</v>
       </c>
-      <c r="E144" s="40">
+      <c r="E144" s="25">
         <v>1</v>
       </c>
-      <c r="F144" s="39" t="s">
+      <c r="F144" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G144" s="33"/>
+      <c r="G144" s="18"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="28">
+      <c r="B145" s="13">
         <v>140</v>
       </c>
-      <c r="C145" s="42" t="s">
+      <c r="C145" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D145" s="39">
+      <c r="D145" s="24">
         <v>900139</v>
       </c>
-      <c r="E145" s="40">
+      <c r="E145" s="25">
         <v>1</v>
       </c>
-      <c r="F145" s="39" t="s">
+      <c r="F145" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="G145" s="33"/>
+      <c r="G145" s="18"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="28">
+      <c r="B146" s="13">
         <v>141</v>
       </c>
-      <c r="C146" s="42" t="s">
+      <c r="C146" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D146" s="39">
+      <c r="D146" s="24">
         <v>900140</v>
       </c>
-      <c r="E146" s="40">
+      <c r="E146" s="25">
         <v>1</v>
       </c>
-      <c r="F146" s="39" t="s">
+      <c r="F146" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G146" s="33"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="28">
+      <c r="B147" s="13">
         <v>142</v>
       </c>
-      <c r="C147" s="42" t="s">
+      <c r="C147" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D147" s="39">
+      <c r="D147" s="24">
         <v>900141</v>
       </c>
-      <c r="E147" s="40">
+      <c r="E147" s="25">
         <v>0.5</v>
       </c>
-      <c r="F147" s="39" t="s">
+      <c r="F147" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="G147" s="33"/>
+      <c r="G147" s="18"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="28">
+      <c r="B148" s="13">
         <v>143</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C148" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D148" s="39">
+      <c r="D148" s="24">
         <v>900142</v>
       </c>
-      <c r="E148" s="40">
+      <c r="E148" s="25">
         <v>1</v>
       </c>
-      <c r="F148" s="39" t="s">
+      <c r="F148" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="G148" s="33"/>
+      <c r="G148" s="18"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="28">
+      <c r="B149" s="13">
         <v>144</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="D149" s="39">
+      <c r="D149" s="24">
         <v>900143</v>
       </c>
-      <c r="E149" s="40">
+      <c r="E149" s="25">
         <v>0.5</v>
       </c>
-      <c r="F149" s="39" t="s">
+      <c r="F149" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="G149" s="33"/>
+      <c r="G149" s="18"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="28">
+      <c r="B150" s="13">
         <v>145</v>
       </c>
-      <c r="C150" s="42" t="s">
+      <c r="C150" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="D150" s="39">
+      <c r="D150" s="24">
         <v>900144</v>
       </c>
-      <c r="E150" s="40">
+      <c r="E150" s="25">
         <v>0.3</v>
       </c>
-      <c r="F150" s="39" t="s">
+      <c r="F150" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G150" s="33"/>
+      <c r="G150" s="18"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="28">
+      <c r="B151" s="13">
         <v>146</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C151" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="D151" s="39">
+      <c r="D151" s="24">
         <v>900145</v>
       </c>
-      <c r="E151" s="40">
+      <c r="E151" s="25">
         <v>0.8</v>
       </c>
-      <c r="F151" s="39" t="s">
+      <c r="F151" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="G151" s="33"/>
+      <c r="G151" s="18"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="28">
+      <c r="B152" s="13">
         <v>147</v>
       </c>
-      <c r="C152" s="42" t="s">
+      <c r="C152" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D152" s="39">
+      <c r="D152" s="24">
         <v>900146</v>
       </c>
-      <c r="E152" s="40">
+      <c r="E152" s="25">
         <v>1</v>
       </c>
-      <c r="F152" s="39" t="s">
+      <c r="F152" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="G152" s="33"/>
+      <c r="G152" s="18"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="28">
+      <c r="B153" s="13">
         <v>148</v>
       </c>
-      <c r="C153" s="42" t="s">
+      <c r="C153" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D153" s="39">
+      <c r="D153" s="24">
         <v>900147</v>
       </c>
-      <c r="E153" s="40">
+      <c r="E153" s="25">
         <v>0.6</v>
       </c>
-      <c r="F153" s="39" t="s">
+      <c r="F153" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G153" s="33"/>
+      <c r="G153" s="18"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="28">
+      <c r="B154" s="13">
         <v>149</v>
       </c>
-      <c r="C154" s="42" t="s">
+      <c r="C154" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D154" s="39">
+      <c r="D154" s="24">
         <v>900148</v>
       </c>
-      <c r="E154" s="40">
+      <c r="E154" s="25">
         <v>2</v>
       </c>
-      <c r="F154" s="39" t="s">
+      <c r="F154" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="G154" s="33"/>
+      <c r="G154" s="18"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="28">
+      <c r="B155" s="13">
         <v>150</v>
       </c>
-      <c r="C155" s="42" t="s">
+      <c r="C155" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D155" s="39">
+      <c r="D155" s="24">
         <v>900149</v>
       </c>
-      <c r="E155" s="40">
+      <c r="E155" s="25">
         <v>0.6</v>
       </c>
-      <c r="F155" s="39" t="s">
+      <c r="F155" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G155" s="33"/>
+      <c r="G155" s="18"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="28">
+      <c r="B156" s="13">
         <v>151</v>
       </c>
-      <c r="C156" s="42" t="s">
+      <c r="C156" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D156" s="39">
+      <c r="D156" s="24">
         <v>900150</v>
       </c>
-      <c r="E156" s="40">
+      <c r="E156" s="25">
         <v>0.7</v>
       </c>
-      <c r="F156" s="39" t="s">
+      <c r="F156" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="G156" s="33"/>
+      <c r="G156" s="18"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="28">
+      <c r="B157" s="13">
         <v>152</v>
       </c>
-      <c r="C157" s="42" t="s">
+      <c r="C157" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D157" s="39">
+      <c r="D157" s="24">
         <v>900151</v>
       </c>
-      <c r="E157" s="40">
+      <c r="E157" s="25">
         <v>0.6</v>
       </c>
-      <c r="F157" s="39" t="s">
+      <c r="F157" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="G157" s="33"/>
+      <c r="G157" s="18"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="28">
+      <c r="B158" s="13">
         <v>153</v>
       </c>
-      <c r="C158" s="42" t="s">
+      <c r="C158" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D158" s="39">
+      <c r="D158" s="24">
         <v>900152</v>
       </c>
-      <c r="E158" s="40">
+      <c r="E158" s="25">
         <v>1</v>
       </c>
-      <c r="F158" s="39" t="s">
+      <c r="F158" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="G158" s="33"/>
+      <c r="G158" s="18"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="28">
+      <c r="B159" s="13">
         <v>154</v>
       </c>
-      <c r="C159" s="42" t="s">
+      <c r="C159" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D159" s="39">
+      <c r="D159" s="24">
         <v>900153</v>
       </c>
-      <c r="E159" s="40">
+      <c r="E159" s="25">
         <v>1.5</v>
       </c>
-      <c r="F159" s="39" t="s">
+      <c r="F159" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G159" s="33"/>
+      <c r="G159" s="18"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="28">
+      <c r="B160" s="13">
         <v>155</v>
       </c>
-      <c r="C160" s="42" t="s">
+      <c r="C160" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D160" s="39">
+      <c r="D160" s="24">
         <v>900154</v>
       </c>
-      <c r="E160" s="40">
+      <c r="E160" s="25">
         <v>0.7</v>
       </c>
-      <c r="F160" s="39" t="s">
+      <c r="F160" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G160" s="33"/>
+      <c r="G160" s="18"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="28">
+      <c r="B161" s="13">
         <v>156</v>
       </c>
-      <c r="C161" s="42" t="s">
+      <c r="C161" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D161" s="39">
+      <c r="D161" s="24">
         <v>900155</v>
       </c>
-      <c r="E161" s="40">
+      <c r="E161" s="25">
         <v>0.5</v>
       </c>
-      <c r="F161" s="39" t="s">
+      <c r="F161" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="G161" s="33"/>
+      <c r="G161" s="18"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="28">
+      <c r="B162" s="13">
         <v>157</v>
       </c>
-      <c r="C162" s="42" t="s">
+      <c r="C162" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D162" s="39">
+      <c r="D162" s="24">
         <v>900156</v>
       </c>
-      <c r="E162" s="40">
+      <c r="E162" s="25">
         <v>1.5</v>
       </c>
-      <c r="F162" s="39" t="s">
+      <c r="F162" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G162" s="33"/>
+      <c r="G162" s="18"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="28">
+      <c r="B163" s="13">
         <v>158</v>
       </c>
-      <c r="C163" s="42" t="s">
+      <c r="C163" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D163" s="39">
+      <c r="D163" s="24">
         <v>900157</v>
       </c>
-      <c r="E163" s="40">
+      <c r="E163" s="25">
         <v>0.7</v>
       </c>
-      <c r="F163" s="39" t="s">
+      <c r="F163" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="G163" s="33"/>
+      <c r="G163" s="18"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="28">
+      <c r="B164" s="13">
         <v>159</v>
       </c>
-      <c r="C164" s="42" t="s">
+      <c r="C164" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D164" s="39">
+      <c r="D164" s="24">
         <v>900158</v>
       </c>
-      <c r="E164" s="40">
+      <c r="E164" s="25">
         <v>0.3</v>
       </c>
-      <c r="F164" s="39" t="s">
+      <c r="F164" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G164" s="33"/>
+      <c r="G164" s="18"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="28">
+      <c r="B165" s="13">
         <v>160</v>
       </c>
-      <c r="C165" s="42" t="s">
+      <c r="C165" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D165" s="39">
+      <c r="D165" s="24">
         <v>900159</v>
       </c>
-      <c r="E165" s="40">
+      <c r="E165" s="25">
         <v>0.4</v>
       </c>
-      <c r="F165" s="39" t="s">
+      <c r="F165" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="G165" s="33"/>
+      <c r="G165" s="18"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="28">
+      <c r="B166" s="13">
         <v>161</v>
       </c>
-      <c r="C166" s="42" t="s">
+      <c r="C166" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D166" s="39">
+      <c r="D166" s="24">
         <v>900160</v>
       </c>
-      <c r="E166" s="40">
+      <c r="E166" s="25">
         <v>1</v>
       </c>
-      <c r="F166" s="39" t="s">
+      <c r="F166" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="G166" s="33"/>
+      <c r="G166" s="18"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="28">
+      <c r="B167" s="13">
         <v>162</v>
       </c>
-      <c r="C167" s="42" t="s">
+      <c r="C167" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D167" s="39">
+      <c r="D167" s="24">
         <v>900161</v>
       </c>
-      <c r="E167" s="40">
+      <c r="E167" s="25">
         <v>1</v>
       </c>
-      <c r="F167" s="39" t="s">
+      <c r="F167" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="G167" s="33"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="28">
+      <c r="B168" s="13">
         <v>163</v>
       </c>
-      <c r="C168" s="42" t="s">
+      <c r="C168" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D168" s="39">
+      <c r="D168" s="24">
         <v>900162</v>
       </c>
-      <c r="E168" s="40">
+      <c r="E168" s="25">
         <v>0.3</v>
       </c>
-      <c r="F168" s="39" t="s">
+      <c r="F168" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G168" s="33"/>
+      <c r="G168" s="18"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="28">
+      <c r="B169" s="13">
         <v>164</v>
       </c>
-      <c r="C169" s="42" t="s">
+      <c r="C169" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D169" s="39">
+      <c r="D169" s="24">
         <v>900163</v>
       </c>
-      <c r="E169" s="40">
+      <c r="E169" s="25">
         <v>0.5</v>
       </c>
-      <c r="F169" s="39" t="s">
+      <c r="F169" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="G169" s="33"/>
+      <c r="G169" s="18"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="28">
+      <c r="B170" s="13">
         <v>165</v>
       </c>
-      <c r="C170" s="42" t="s">
+      <c r="C170" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D170" s="39">
+      <c r="D170" s="24">
         <v>900164</v>
       </c>
-      <c r="E170" s="40">
+      <c r="E170" s="25">
         <v>0.8</v>
       </c>
-      <c r="F170" s="39" t="s">
+      <c r="F170" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="G170" s="33"/>
+      <c r="G170" s="18"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="28">
+      <c r="B171" s="13">
         <v>166</v>
       </c>
-      <c r="C171" s="42" t="s">
+      <c r="C171" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="D171" s="39">
+      <c r="D171" s="24">
         <v>900165</v>
       </c>
-      <c r="E171" s="40">
+      <c r="E171" s="25">
         <v>1</v>
       </c>
-      <c r="F171" s="39" t="s">
+      <c r="F171" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="G171" s="33"/>
+      <c r="G171" s="18"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="28">
+      <c r="B172" s="13">
         <v>167</v>
       </c>
-      <c r="C172" s="42" t="s">
+      <c r="C172" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="D172" s="39">
+      <c r="D172" s="24">
         <v>900166</v>
       </c>
-      <c r="E172" s="40">
+      <c r="E172" s="25">
         <v>0.6</v>
       </c>
-      <c r="F172" s="39" t="s">
+      <c r="F172" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G172" s="33"/>
+      <c r="G172" s="18"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="28">
+      <c r="B173" s="13">
         <v>168</v>
       </c>
-      <c r="C173" s="42" t="s">
+      <c r="C173" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D173" s="39">
+      <c r="D173" s="24">
         <v>900167</v>
       </c>
-      <c r="E173" s="40">
+      <c r="E173" s="25">
         <v>0.4</v>
       </c>
-      <c r="F173" s="39" t="s">
+      <c r="F173" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="G173" s="33"/>
+      <c r="G173" s="18"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="28">
+      <c r="B174" s="13">
         <v>169</v>
       </c>
-      <c r="C174" s="42" t="s">
+      <c r="C174" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D174" s="39">
+      <c r="D174" s="24">
         <v>900168</v>
       </c>
-      <c r="E174" s="40">
+      <c r="E174" s="25">
         <v>0.6</v>
       </c>
-      <c r="F174" s="39" t="s">
+      <c r="F174" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G174" s="33"/>
+      <c r="G174" s="18"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="28">
+      <c r="B175" s="13">
         <v>170</v>
       </c>
-      <c r="C175" s="42" t="s">
+      <c r="C175" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D175" s="39">
+      <c r="D175" s="24">
         <v>900169</v>
       </c>
-      <c r="E175" s="40">
+      <c r="E175" s="25">
         <v>1</v>
       </c>
-      <c r="F175" s="39" t="s">
+      <c r="F175" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="G175" s="33"/>
+      <c r="G175" s="18"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="28">
+      <c r="B176" s="13">
         <v>171</v>
       </c>
-      <c r="C176" s="42" t="s">
+      <c r="C176" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D176" s="39">
+      <c r="D176" s="24">
         <v>900170</v>
       </c>
-      <c r="E176" s="40">
+      <c r="E176" s="25">
         <v>0.6</v>
       </c>
-      <c r="F176" s="39" t="s">
+      <c r="F176" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G176" s="33"/>
+      <c r="G176" s="18"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="28">
+      <c r="B177" s="13">
         <v>172</v>
       </c>
-      <c r="C177" s="42" t="s">
+      <c r="C177" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D177" s="39">
+      <c r="D177" s="24">
         <v>900171</v>
       </c>
-      <c r="E177" s="40">
+      <c r="E177" s="25">
         <v>1</v>
       </c>
-      <c r="F177" s="39" t="s">
+      <c r="F177" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="G177" s="33"/>
+      <c r="G177" s="18"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="28">
+      <c r="B178" s="13">
         <v>173</v>
       </c>
-      <c r="C178" s="42" t="s">
+      <c r="C178" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D178" s="39">
+      <c r="D178" s="24">
         <v>900172</v>
       </c>
-      <c r="E178" s="40">
+      <c r="E178" s="25">
         <v>0.7</v>
       </c>
-      <c r="F178" s="39" t="s">
+      <c r="F178" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="G178" s="33"/>
+      <c r="G178" s="18"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="28">
+      <c r="B179" s="13">
         <v>174</v>
       </c>
-      <c r="C179" s="42" t="s">
+      <c r="C179" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D179" s="39">
+      <c r="D179" s="24">
         <v>900173</v>
       </c>
-      <c r="E179" s="40">
+      <c r="E179" s="25">
         <v>0.6</v>
       </c>
-      <c r="F179" s="39" t="s">
+      <c r="F179" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G179" s="33"/>
+      <c r="G179" s="18"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="28">
+      <c r="B180" s="13">
         <v>175</v>
       </c>
-      <c r="C180" s="42" t="s">
+      <c r="C180" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D180" s="39">
+      <c r="D180" s="24">
         <v>900174</v>
       </c>
-      <c r="E180" s="40">
+      <c r="E180" s="25">
         <v>1</v>
       </c>
-      <c r="F180" s="39" t="s">
+      <c r="F180" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="G180" s="33"/>
+      <c r="G180" s="18"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="28">
+      <c r="B181" s="13">
         <v>176</v>
       </c>
-      <c r="C181" s="42" t="s">
+      <c r="C181" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D181" s="39">
+      <c r="D181" s="24">
         <v>900175</v>
       </c>
-      <c r="E181" s="40">
+      <c r="E181" s="25">
         <v>1.5</v>
       </c>
-      <c r="F181" s="39" t="s">
+      <c r="F181" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G181" s="33"/>
+      <c r="G181" s="18"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="28">
+      <c r="B182" s="13">
         <v>177</v>
       </c>
-      <c r="C182" s="42" t="s">
+      <c r="C182" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D182" s="39">
+      <c r="D182" s="24">
         <v>900176</v>
       </c>
-      <c r="E182" s="40">
+      <c r="E182" s="25">
         <v>0.7</v>
       </c>
-      <c r="F182" s="39" t="s">
+      <c r="F182" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G182" s="33"/>
+      <c r="G182" s="18"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="28">
+      <c r="B183" s="13">
         <v>178</v>
       </c>
-      <c r="C183" s="42" t="s">
+      <c r="C183" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D183" s="39">
+      <c r="D183" s="24">
         <v>900177</v>
       </c>
-      <c r="E183" s="40">
+      <c r="E183" s="25">
         <v>0.5</v>
       </c>
-      <c r="F183" s="39" t="s">
+      <c r="F183" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="G183" s="33"/>
+      <c r="G183" s="18"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="28">
+      <c r="B184" s="13">
         <v>179</v>
       </c>
-      <c r="C184" s="42" t="s">
+      <c r="C184" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D184" s="39">
+      <c r="D184" s="24">
         <v>900178</v>
       </c>
-      <c r="E184" s="40">
+      <c r="E184" s="25">
         <v>1.5</v>
       </c>
-      <c r="F184" s="39" t="s">
+      <c r="F184" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G184" s="33"/>
+      <c r="G184" s="18"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="28">
+      <c r="B185" s="13">
         <v>180</v>
       </c>
-      <c r="C185" s="42" t="s">
+      <c r="C185" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D185" s="39">
+      <c r="D185" s="24">
         <v>900179</v>
       </c>
-      <c r="E185" s="40">
+      <c r="E185" s="25">
         <v>1</v>
       </c>
-      <c r="F185" s="39" t="s">
+      <c r="F185" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G185" s="33"/>
+      <c r="G185" s="18"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="28">
+      <c r="B186" s="13">
         <v>181</v>
       </c>
-      <c r="C186" s="42" t="s">
+      <c r="C186" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D186" s="39">
+      <c r="D186" s="24">
         <v>900180</v>
       </c>
-      <c r="E186" s="40">
+      <c r="E186" s="25">
         <v>0.5</v>
       </c>
-      <c r="F186" s="39" t="s">
+      <c r="F186" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="G186" s="33"/>
+      <c r="G186" s="18"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="28">
+      <c r="B187" s="13">
         <v>182</v>
       </c>
-      <c r="C187" s="42" t="s">
+      <c r="C187" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D187" s="39">
+      <c r="D187" s="24">
         <v>900181</v>
       </c>
-      <c r="E187" s="40">
+      <c r="E187" s="25">
         <v>0.8</v>
       </c>
-      <c r="F187" s="39" t="s">
+      <c r="F187" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="G187" s="33"/>
+      <c r="G187" s="18"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="28">
+      <c r="B188" s="13">
         <v>183</v>
       </c>
-      <c r="C188" s="42" t="s">
+      <c r="C188" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D188" s="39">
+      <c r="D188" s="24">
         <v>900182</v>
       </c>
-      <c r="E188" s="40">
+      <c r="E188" s="25">
         <v>0.4</v>
       </c>
-      <c r="F188" s="39" t="s">
+      <c r="F188" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="G188" s="33"/>
+      <c r="G188" s="18"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="28">
+      <c r="B189" s="13">
         <v>184</v>
       </c>
-      <c r="C189" s="42" t="s">
+      <c r="C189" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D189" s="39">
+      <c r="D189" s="24">
         <v>900183</v>
       </c>
-      <c r="E189" s="40">
+      <c r="E189" s="25">
         <v>0.8</v>
       </c>
-      <c r="F189" s="39" t="s">
+      <c r="F189" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="G189" s="33"/>
+      <c r="G189" s="18"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="28">
+      <c r="B190" s="13">
         <v>185</v>
       </c>
-      <c r="C190" s="42" t="s">
+      <c r="C190" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D190" s="39">
+      <c r="D190" s="24">
         <v>900184</v>
       </c>
-      <c r="E190" s="40">
+      <c r="E190" s="25">
         <v>1.4</v>
       </c>
-      <c r="F190" s="39" t="s">
+      <c r="F190" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="G190" s="33"/>
+      <c r="G190" s="18"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="28">
+      <c r="B191" s="13">
         <v>186</v>
       </c>
-      <c r="C191" s="42" t="s">
+      <c r="C191" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D191" s="39">
+      <c r="D191" s="24">
         <v>900185</v>
       </c>
-      <c r="E191" s="40">
+      <c r="E191" s="25">
         <v>0.8</v>
       </c>
-      <c r="F191" s="39" t="s">
+      <c r="F191" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="G191" s="33"/>
+      <c r="G191" s="18"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="28">
+      <c r="B192" s="13">
         <v>187</v>
       </c>
-      <c r="C192" s="42" t="s">
+      <c r="C192" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D192" s="39">
+      <c r="D192" s="24">
         <v>900186</v>
       </c>
-      <c r="E192" s="40">
+      <c r="E192" s="25">
         <v>1</v>
       </c>
-      <c r="F192" s="39" t="s">
+      <c r="F192" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="G192" s="33"/>
+      <c r="G192" s="18"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="28">
+      <c r="B193" s="13">
         <v>188</v>
       </c>
-      <c r="C193" s="42" t="s">
+      <c r="C193" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D193" s="39">
+      <c r="D193" s="24">
         <v>900187</v>
       </c>
-      <c r="E193" s="40">
+      <c r="E193" s="25">
         <v>1</v>
       </c>
-      <c r="F193" s="39" t="s">
+      <c r="F193" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="G193" s="33"/>
+      <c r="G193" s="18"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="28">
+      <c r="B194" s="13">
         <v>189</v>
       </c>
-      <c r="C194" s="42" t="s">
+      <c r="C194" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D194" s="39">
+      <c r="D194" s="24">
         <v>900188</v>
       </c>
-      <c r="E194" s="40">
+      <c r="E194" s="25">
         <v>1</v>
       </c>
-      <c r="F194" s="39" t="s">
+      <c r="F194" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="G194" s="33"/>
+      <c r="G194" s="18"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="28">
+      <c r="B195" s="13">
         <v>190</v>
       </c>
-      <c r="C195" s="42" t="s">
+      <c r="C195" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D195" s="39">
+      <c r="D195" s="24">
         <v>900189</v>
       </c>
-      <c r="E195" s="40">
+      <c r="E195" s="25">
         <v>1.2</v>
       </c>
-      <c r="F195" s="39" t="s">
+      <c r="F195" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="G195" s="33"/>
+      <c r="G195" s="18"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="28">
+      <c r="B196" s="13">
         <v>191</v>
       </c>
-      <c r="C196" s="42" t="s">
+      <c r="C196" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D196" s="39">
+      <c r="D196" s="24">
         <v>900190</v>
       </c>
-      <c r="E196" s="40">
+      <c r="E196" s="25">
         <v>1</v>
       </c>
-      <c r="F196" s="39" t="s">
+      <c r="F196" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G196" s="33"/>
+      <c r="G196" s="18"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="28">
+      <c r="B197" s="13">
         <v>192</v>
       </c>
-      <c r="C197" s="42" t="s">
+      <c r="C197" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="39">
+      <c r="D197" s="24">
         <v>900191</v>
       </c>
-      <c r="E197" s="40">
+      <c r="E197" s="25">
         <v>0.6</v>
       </c>
-      <c r="F197" s="39" t="s">
+      <c r="F197" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="G197" s="33"/>
+      <c r="G197" s="18"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="28">
+      <c r="B198" s="13">
         <v>193</v>
       </c>
-      <c r="C198" s="42" t="s">
+      <c r="C198" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D198" s="39">
+      <c r="D198" s="24">
         <v>900192</v>
       </c>
-      <c r="E198" s="40">
+      <c r="E198" s="25">
         <v>1</v>
       </c>
-      <c r="F198" s="39" t="s">
+      <c r="F198" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="G198" s="33"/>
+      <c r="G198" s="18"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="28">
+      <c r="B199" s="13">
         <v>194</v>
       </c>
-      <c r="C199" s="42" t="s">
+      <c r="C199" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="D199" s="39">
+      <c r="D199" s="24">
         <v>900193</v>
       </c>
-      <c r="E199" s="40">
+      <c r="E199" s="25">
         <v>0.8</v>
       </c>
-      <c r="F199" s="39" t="s">
+      <c r="F199" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="G199" s="33"/>
+      <c r="G199" s="18"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="28">
+      <c r="B200" s="13">
         <v>195</v>
       </c>
-      <c r="C200" s="42" t="s">
+      <c r="C200" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D200" s="39">
+      <c r="D200" s="24">
         <v>900194</v>
       </c>
-      <c r="E200" s="40">
+      <c r="E200" s="25">
         <v>1</v>
       </c>
-      <c r="F200" s="39" t="s">
+      <c r="F200" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="G200" s="33"/>
+      <c r="G200" s="18"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="28">
+      <c r="B201" s="13">
         <v>196</v>
       </c>
-      <c r="C201" s="42" t="s">
+      <c r="C201" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D201" s="39">
+      <c r="D201" s="24">
         <v>900195</v>
       </c>
-      <c r="E201" s="40">
+      <c r="E201" s="25">
         <v>0.8</v>
       </c>
-      <c r="F201" s="39" t="s">
+      <c r="F201" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="G201" s="33"/>
+      <c r="G201" s="18"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="28">
+      <c r="B202" s="13">
         <v>197</v>
       </c>
-      <c r="C202" s="43" t="s">
+      <c r="C202" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D202" s="44">
+      <c r="D202" s="29">
         <v>900196</v>
       </c>
-      <c r="E202" s="45">
+      <c r="E202" s="30">
         <v>0.8</v>
       </c>
-      <c r="F202" s="44" t="s">
+      <c r="F202" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="G202" s="33"/>
+      <c r="G202" s="18"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="28">
+      <c r="B203" s="13">
         <v>198</v>
       </c>
-      <c r="C203" s="46" t="s">
+      <c r="C203" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="D203" s="44">
+      <c r="D203" s="29">
         <v>900197</v>
       </c>
-      <c r="E203" s="45">
+      <c r="E203" s="30">
         <v>1</v>
       </c>
-      <c r="F203" s="44" t="s">
+      <c r="F203" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G203" s="33"/>
+      <c r="G203" s="18"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="28">
+      <c r="B204" s="13">
         <v>199</v>
       </c>
-      <c r="C204" s="46" t="s">
+      <c r="C204" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="D204" s="44">
+      <c r="D204" s="29">
         <v>900198</v>
       </c>
-      <c r="E204" s="45">
+      <c r="E204" s="30">
         <v>1</v>
       </c>
-      <c r="F204" s="44" t="s">
+      <c r="F204" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="G204" s="33"/>
+      <c r="G204" s="18"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="28">
+      <c r="B205" s="13">
         <v>200</v>
       </c>
-      <c r="C205" s="43" t="s">
+      <c r="C205" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D205" s="44">
+      <c r="D205" s="29">
         <v>900199</v>
       </c>
-      <c r="E205" s="45">
+      <c r="E205" s="30">
         <v>0.8</v>
       </c>
-      <c r="F205" s="44" t="s">
+      <c r="F205" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="G205" s="33"/>
+      <c r="G205" s="18"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="28">
+      <c r="B206" s="13">
         <v>201</v>
       </c>
-      <c r="C206" s="43" t="s">
+      <c r="C206" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="D206" s="44">
+      <c r="D206" s="29">
         <v>900200</v>
       </c>
-      <c r="E206" s="45">
+      <c r="E206" s="30">
         <v>0.7</v>
       </c>
-      <c r="F206" s="44" t="s">
+      <c r="F206" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="G206" s="33"/>
+      <c r="G206" s="18"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="28">
+      <c r="B207" s="13">
         <v>202</v>
       </c>
-      <c r="C207" s="43" t="s">
+      <c r="C207" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="D207" s="44">
+      <c r="D207" s="29">
         <v>900201</v>
       </c>
-      <c r="E207" s="45">
+      <c r="E207" s="30">
         <v>0.5</v>
       </c>
-      <c r="F207" s="44" t="s">
+      <c r="F207" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G207" s="33"/>
+      <c r="G207" s="18"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="28">
+      <c r="B208" s="13">
         <v>203</v>
       </c>
-      <c r="C208" s="43" t="s">
+      <c r="C208" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="D208" s="44">
+      <c r="D208" s="29">
         <v>900202</v>
       </c>
-      <c r="E208" s="45">
+      <c r="E208" s="30">
         <v>0.5</v>
       </c>
-      <c r="F208" s="44" t="s">
+      <c r="F208" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="G208" s="33"/>
+      <c r="G208" s="18"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="28">
+      <c r="B209" s="13">
         <v>204</v>
       </c>
-      <c r="C209" s="43" t="s">
+      <c r="C209" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="D209" s="44">
+      <c r="D209" s="29">
         <v>900203</v>
       </c>
-      <c r="E209" s="45">
+      <c r="E209" s="30">
         <v>1</v>
       </c>
-      <c r="F209" s="44" t="s">
+      <c r="F209" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="G209" s="33"/>
+      <c r="G209" s="18"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="28">
+      <c r="B210" s="13">
         <v>205</v>
       </c>
-      <c r="C210" s="43" t="s">
+      <c r="C210" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="D210" s="44">
+      <c r="D210" s="29">
         <v>900204</v>
       </c>
-      <c r="E210" s="45">
+      <c r="E210" s="30">
         <v>1</v>
       </c>
-      <c r="F210" s="44" t="s">
+      <c r="F210" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="G210" s="33"/>
+      <c r="G210" s="18"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="28">
+      <c r="B211" s="13">
         <v>206</v>
       </c>
-      <c r="C211" s="43" t="s">
+      <c r="C211" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D211" s="44">
+      <c r="D211" s="29">
         <v>900205</v>
       </c>
-      <c r="E211" s="45">
+      <c r="E211" s="30">
         <v>1</v>
       </c>
-      <c r="F211" s="44" t="s">
+      <c r="F211" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="G211" s="33"/>
+      <c r="G211" s="18"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="28">
+      <c r="B212" s="13">
         <v>207</v>
       </c>
-      <c r="C212" s="43" t="s">
+      <c r="C212" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="D212" s="44">
+      <c r="D212" s="29">
         <v>900206</v>
       </c>
-      <c r="E212" s="45">
+      <c r="E212" s="30">
         <v>1</v>
       </c>
-      <c r="F212" s="44" t="s">
+      <c r="F212" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="G212" s="33"/>
+      <c r="G212" s="18"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="28">
+      <c r="B213" s="13">
         <v>208</v>
       </c>
-      <c r="C213" s="43" t="s">
+      <c r="C213" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="D213" s="44">
+      <c r="D213" s="29">
         <v>900207</v>
       </c>
-      <c r="E213" s="45">
+      <c r="E213" s="30">
         <v>1</v>
       </c>
-      <c r="F213" s="44" t="s">
+      <c r="F213" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="G213" s="33"/>
+      <c r="G213" s="18"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="28">
+      <c r="B214" s="13">
         <v>209</v>
       </c>
-      <c r="C214" s="43" t="s">
+      <c r="C214" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D214" s="44">
+      <c r="D214" s="29">
         <v>900208</v>
       </c>
-      <c r="E214" s="45">
+      <c r="E214" s="30">
         <v>1</v>
       </c>
-      <c r="F214" s="44" t="s">
+      <c r="F214" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="G214" s="33"/>
+      <c r="G214" s="18"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="28">
+      <c r="B215" s="13">
         <v>210</v>
       </c>
-      <c r="C215" s="43" t="s">
+      <c r="C215" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="D215" s="44">
+      <c r="D215" s="29">
         <v>900209</v>
       </c>
-      <c r="E215" s="45">
+      <c r="E215" s="30">
         <v>1</v>
       </c>
-      <c r="F215" s="44" t="s">
+      <c r="F215" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="G215" s="33"/>
+      <c r="G215" s="18"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="28">
+      <c r="B216" s="13">
         <v>211</v>
       </c>
-      <c r="C216" s="47" t="s">
+      <c r="C216" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="D216" s="48">
+      <c r="D216" s="33">
         <v>900210</v>
       </c>
-      <c r="E216" s="49">
+      <c r="E216" s="34">
         <v>1</v>
       </c>
-      <c r="F216" s="48" t="s">
+      <c r="F216" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="G216" s="33"/>
+      <c r="G216" s="18"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="28">
+      <c r="B217" s="13">
         <v>212</v>
       </c>
-      <c r="C217" s="47" t="s">
+      <c r="C217" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="D217" s="48">
+      <c r="D217" s="33">
         <v>900211</v>
       </c>
-      <c r="E217" s="49">
+      <c r="E217" s="34">
         <v>1</v>
       </c>
-      <c r="F217" s="48" t="s">
+      <c r="F217" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="G217" s="33"/>
+      <c r="G217" s="18"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="28">
+      <c r="B218" s="13">
         <v>213</v>
       </c>
-      <c r="C218" s="47" t="s">
+      <c r="C218" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="D218" s="48">
+      <c r="D218" s="33">
         <v>900212</v>
       </c>
-      <c r="E218" s="49">
+      <c r="E218" s="34">
         <v>1</v>
       </c>
-      <c r="F218" s="48" t="s">
+      <c r="F218" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="G218" s="33"/>
+      <c r="G218" s="18"/>
     </row>
     <row r="219" spans="2:7">
-      <c r="B219" s="28">
+      <c r="B219" s="13">
         <v>214</v>
       </c>
-      <c r="C219" s="47" t="s">
+      <c r="C219" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="D219" s="48">
+      <c r="D219" s="33">
         <v>900213</v>
       </c>
-      <c r="E219" s="49">
+      <c r="E219" s="34">
         <v>1</v>
       </c>
-      <c r="F219" s="48" t="s">
+      <c r="F219" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="G219" s="33"/>
+      <c r="G219" s="18"/>
     </row>
     <row r="220" spans="2:7">
-      <c r="B220" s="28">
+      <c r="B220" s="13">
         <v>215</v>
       </c>
-      <c r="C220" s="47" t="s">
+      <c r="C220" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="D220" s="48">
+      <c r="D220" s="33">
         <v>900214</v>
       </c>
-      <c r="E220" s="49">
+      <c r="E220" s="34">
         <v>1</v>
       </c>
-      <c r="F220" s="48" t="s">
+      <c r="F220" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="G220" s="33"/>
+      <c r="G220" s="18"/>
     </row>
     <row r="221" spans="2:7">
-      <c r="B221" s="28">
+      <c r="B221" s="13">
         <v>216</v>
       </c>
-      <c r="C221" s="47" t="s">
+      <c r="C221" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D221" s="48">
+      <c r="D221" s="33">
         <v>900215</v>
       </c>
-      <c r="E221" s="49">
+      <c r="E221" s="34">
         <v>1</v>
       </c>
-      <c r="F221" s="48" t="s">
+      <c r="F221" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="G221" s="33"/>
+      <c r="G221" s="18"/>
     </row>
     <row r="222" spans="2:7">
-      <c r="B222" s="28">
+      <c r="B222" s="13">
         <v>217</v>
       </c>
-      <c r="C222" s="47" t="s">
+      <c r="C222" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="D222" s="48">
+      <c r="D222" s="33">
         <v>900216</v>
       </c>
-      <c r="E222" s="49">
+      <c r="E222" s="34">
         <v>1</v>
       </c>
-      <c r="F222" s="48" t="s">
+      <c r="F222" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="G222" s="33"/>
+      <c r="G222" s="18"/>
     </row>
     <row r="223" spans="2:7">
-      <c r="B223" s="28">
+      <c r="B223" s="13">
         <v>218</v>
       </c>
-      <c r="C223" s="47" t="s">
+      <c r="C223" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="D223" s="48">
+      <c r="D223" s="33">
         <v>900217</v>
       </c>
-      <c r="E223" s="49">
+      <c r="E223" s="34">
         <v>2</v>
       </c>
-      <c r="F223" s="48" t="s">
+      <c r="F223" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="G223" s="33"/>
+      <c r="G223" s="18"/>
     </row>
     <row r="224" spans="2:7">
-      <c r="B224" s="28">
+      <c r="B224" s="13">
         <v>219</v>
       </c>
-      <c r="C224" s="50" t="s">
+      <c r="C224" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="D224" s="51">
+      <c r="D224" s="36">
         <v>900218</v>
       </c>
-      <c r="E224" s="52">
+      <c r="E224" s="37">
         <v>0.4</v>
       </c>
-      <c r="F224" s="51" t="s">
+      <c r="F224" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="G224" s="33"/>
+      <c r="G224" s="18"/>
     </row>
     <row r="225" spans="2:7">
-      <c r="B225" s="28">
+      <c r="B225" s="13">
         <v>220</v>
       </c>
-      <c r="C225" s="50" t="s">
+      <c r="C225" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="D225" s="51">
+      <c r="D225" s="36">
         <v>900219</v>
       </c>
-      <c r="E225" s="52">
+      <c r="E225" s="37">
         <v>0.4</v>
       </c>
-      <c r="F225" s="51" t="s">
+      <c r="F225" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="G225" s="33"/>
+      <c r="G225" s="18"/>
     </row>
     <row r="226" spans="2:7">
-      <c r="B226" s="28">
+      <c r="B226" s="13">
         <v>221</v>
       </c>
-      <c r="C226" s="50" t="s">
+      <c r="C226" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D226" s="51">
+      <c r="D226" s="36">
         <v>900220</v>
       </c>
-      <c r="E226" s="52">
+      <c r="E226" s="37">
         <v>0.4</v>
       </c>
-      <c r="F226" s="51" t="s">
+      <c r="F226" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="G226" s="33"/>
+      <c r="G226" s="18"/>
     </row>
     <row r="227" spans="2:7">
-      <c r="B227" s="28">
+      <c r="B227" s="13">
         <v>222</v>
       </c>
-      <c r="C227" s="50" t="s">
+      <c r="C227" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D227" s="51">
+      <c r="D227" s="36">
         <v>900221</v>
       </c>
-      <c r="E227" s="52">
+      <c r="E227" s="37">
         <v>0.4</v>
       </c>
-      <c r="F227" s="51" t="s">
+      <c r="F227" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="G227" s="33"/>
+      <c r="G227" s="18"/>
     </row>
     <row r="228" spans="2:7">
-      <c r="B228" s="28">
+      <c r="B228" s="13">
         <v>223</v>
       </c>
-      <c r="C228" s="50" t="s">
+      <c r="C228" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="D228" s="51">
+      <c r="D228" s="36">
         <v>900222</v>
       </c>
-      <c r="E228" s="52">
+      <c r="E228" s="37">
         <v>0.4</v>
       </c>
-      <c r="F228" s="51" t="s">
+      <c r="F228" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="G228" s="33"/>
+      <c r="G228" s="18"/>
     </row>
     <row r="229" spans="2:7">
-      <c r="B229" s="28">
+      <c r="B229" s="13">
         <v>224</v>
       </c>
-      <c r="C229" s="50" t="s">
+      <c r="C229" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="D229" s="51">
+      <c r="D229" s="36">
         <v>900223</v>
       </c>
-      <c r="E229" s="52">
+      <c r="E229" s="37">
         <v>0.4</v>
       </c>
-      <c r="F229" s="51" t="s">
+      <c r="F229" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="G229" s="33"/>
+      <c r="G229" s="18"/>
     </row>
     <row r="230" spans="2:7">
-      <c r="B230" s="28">
+      <c r="B230" s="13">
         <v>225</v>
       </c>
-      <c r="C230" s="50" t="s">
+      <c r="C230" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="D230" s="51">
+      <c r="D230" s="36">
         <v>900224</v>
       </c>
-      <c r="E230" s="52">
+      <c r="E230" s="37">
         <v>0.4</v>
       </c>
-      <c r="F230" s="51" t="s">
+      <c r="F230" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="G230" s="33"/>
+      <c r="G230" s="18"/>
     </row>
     <row r="231" spans="2:7">
-      <c r="B231" s="28">
+      <c r="B231" s="13">
         <v>226</v>
       </c>
-      <c r="C231" s="50" t="s">
+      <c r="C231" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D231" s="51">
+      <c r="D231" s="36">
         <v>900225</v>
       </c>
-      <c r="E231" s="52">
+      <c r="E231" s="37">
         <v>0.4</v>
       </c>
-      <c r="F231" s="51" t="s">
+      <c r="F231" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G231" s="33"/>
+      <c r="G231" s="18"/>
     </row>
     <row r="232" spans="2:7">
-      <c r="B232" s="28">
+      <c r="B232" s="13">
         <v>227</v>
       </c>
-      <c r="C232" s="50" t="s">
+      <c r="C232" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="D232" s="51">
+      <c r="D232" s="36">
         <v>900226</v>
       </c>
-      <c r="E232" s="52">
+      <c r="E232" s="37">
         <v>0.4</v>
       </c>
-      <c r="F232" s="51" t="s">
+      <c r="F232" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="G232" s="33"/>
+      <c r="G232" s="18"/>
     </row>
     <row r="233" spans="2:7">
-      <c r="B233" s="28">
+      <c r="B233" s="13">
         <v>228</v>
       </c>
-      <c r="C233" s="50" t="s">
+      <c r="C233" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="D233" s="51">
+      <c r="D233" s="36">
         <v>900227</v>
       </c>
-      <c r="E233" s="52">
+      <c r="E233" s="37">
         <v>0.4</v>
       </c>
-      <c r="F233" s="51" t="s">
+      <c r="F233" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="G233" s="33"/>
+      <c r="G233" s="18"/>
     </row>
     <row r="234" spans="2:7">
-      <c r="B234" s="28">
+      <c r="B234" s="13">
         <v>229</v>
       </c>
-      <c r="C234" s="50" t="s">
+      <c r="C234" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="D234" s="51">
+      <c r="D234" s="36">
         <v>900228</v>
       </c>
-      <c r="E234" s="52">
+      <c r="E234" s="37">
         <v>0.5</v>
       </c>
-      <c r="F234" s="53" t="s">
+      <c r="F234" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="G234" s="33"/>
+      <c r="G234" s="18"/>
     </row>
     <row r="235" spans="2:7">
-      <c r="B235" s="28">
+      <c r="B235" s="13">
         <v>230</v>
       </c>
-      <c r="C235" s="50" t="s">
+      <c r="C235" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="D235" s="51">
+      <c r="D235" s="36">
         <v>900229</v>
       </c>
-      <c r="E235" s="52">
+      <c r="E235" s="37">
         <v>0.5</v>
       </c>
-      <c r="F235" s="53" t="s">
+      <c r="F235" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="G235" s="33"/>
+      <c r="G235" s="18"/>
     </row>
     <row r="236" spans="2:7">
-      <c r="B236" s="28">
+      <c r="B236" s="13">
         <v>231</v>
       </c>
-      <c r="C236" s="50" t="s">
+      <c r="C236" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="D236" s="51">
+      <c r="D236" s="36">
         <v>900230</v>
       </c>
-      <c r="E236" s="52">
+      <c r="E236" s="37">
         <v>0.5</v>
       </c>
-      <c r="F236" s="53" t="s">
+      <c r="F236" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="G236" s="33"/>
+      <c r="G236" s="18"/>
     </row>
     <row r="237" spans="2:7">
-      <c r="B237" s="28">
+      <c r="B237" s="13">
         <v>232</v>
       </c>
-      <c r="C237" s="50" t="s">
+      <c r="C237" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="D237" s="51">
+      <c r="D237" s="36">
         <v>900231</v>
       </c>
-      <c r="E237" s="52">
+      <c r="E237" s="37">
         <v>0.5</v>
       </c>
-      <c r="F237" s="53" t="s">
+      <c r="F237" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="G237" s="33"/>
+      <c r="G237" s="18"/>
     </row>
     <row r="238" spans="2:7">
-      <c r="B238" s="28">
+      <c r="B238" s="13">
         <v>233</v>
       </c>
-      <c r="C238" s="50" t="s">
+      <c r="C238" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="D238" s="51">
+      <c r="D238" s="36">
         <v>900232</v>
       </c>
-      <c r="E238" s="52">
+      <c r="E238" s="37">
         <v>0.5</v>
       </c>
-      <c r="F238" s="53" t="s">
+      <c r="F238" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="G238" s="33"/>
+      <c r="G238" s="18"/>
     </row>
     <row r="239" spans="2:7">
-      <c r="B239" s="28">
+      <c r="B239" s="13">
         <v>234</v>
       </c>
-      <c r="C239" s="50" t="s">
+      <c r="C239" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="D239" s="51">
+      <c r="D239" s="36">
         <v>900233</v>
       </c>
-      <c r="E239" s="52">
+      <c r="E239" s="37">
         <v>0.5</v>
       </c>
-      <c r="F239" s="53" t="s">
+      <c r="F239" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="G239" s="33"/>
+      <c r="G239" s="18"/>
     </row>
     <row r="240" spans="2:7">
-      <c r="B240" s="28">
+      <c r="B240" s="13">
         <v>235</v>
       </c>
-      <c r="C240" s="50" t="s">
+      <c r="C240" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="D240" s="51">
+      <c r="D240" s="36">
         <v>900234</v>
       </c>
-      <c r="E240" s="52">
+      <c r="E240" s="37">
         <v>0.5</v>
       </c>
-      <c r="F240" s="53" t="s">
+      <c r="F240" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="G240" s="33"/>
+      <c r="G240" s="18"/>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="24"/>
+      <c r="B241" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8794,8 +8794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}">
   <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8809,975 +8809,975 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="28">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="44">
         <v>910001</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="28">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="44">
         <v>910002</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="28">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="44">
         <v>910003</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="28">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="44">
         <v>910004</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="28">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="44">
         <v>910005</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="28">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="44">
         <v>910006</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="28">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="44">
         <v>910007</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="28">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="44">
         <v>910008</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="28">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="44">
         <v>910009</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="28">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="44">
         <v>910010</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="28">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="44">
         <v>910011</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="28">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="44">
         <v>910012</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="28">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="44">
         <v>910013</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="28">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="44">
         <v>910014</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="28">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="44">
         <v>910015</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="28">
+      <c r="B21" s="13">
         <v>16</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="44">
         <v>910016</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="28">
+      <c r="B22" s="13">
         <v>17</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="44">
         <v>910017</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="28">
+      <c r="B23" s="13">
         <v>18</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="44">
         <v>910018</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="28">
+      <c r="B24" s="13">
         <v>19</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="44">
         <v>910019</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="28">
+      <c r="B25" s="13">
         <v>20</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="44">
         <v>910020</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="28">
+      <c r="B26" s="13">
         <v>21</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="44">
         <v>910021</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="28">
+      <c r="B27" s="13">
         <v>22</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="44">
         <v>910022</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="F27" s="33"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="28">
+      <c r="B28" s="13">
         <v>23</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="44">
         <v>910023</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="28">
+      <c r="B29" s="13">
         <v>24</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="44">
         <v>910024</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="28">
+      <c r="B30" s="13">
         <v>25</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="44">
         <v>910025</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="44" t="s">
         <v>466</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="28">
+      <c r="B31" s="13">
         <v>26</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="44">
         <v>910026</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="28">
+      <c r="B32" s="13">
         <v>27</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="44">
         <v>910027</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="28">
+      <c r="B33" s="13">
         <v>28</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="44">
         <v>910028</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="28">
+      <c r="B34" s="13">
         <v>29</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="44">
         <v>910029</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="28">
+      <c r="B35" s="13">
         <v>30</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="44">
         <v>910030</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="28">
+      <c r="B36" s="13">
         <v>31</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="44">
         <v>910031</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="28">
+      <c r="B37" s="13">
         <v>32</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="44">
         <v>910032</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="28">
+      <c r="B38" s="13">
         <v>33</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="44">
         <v>910033</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="28">
+      <c r="B39" s="13">
         <v>34</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="36">
         <v>910034</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="36" t="s">
         <v>484</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="28">
+      <c r="B40" s="13">
         <v>35</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="36">
         <v>910035</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="28">
+      <c r="B41" s="13">
         <v>36</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="36">
         <v>910036</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="F41" s="33"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="28">
+      <c r="B42" s="13">
         <v>37</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="36">
         <v>910037</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="28">
+      <c r="B43" s="13">
         <v>38</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="36">
         <v>910038</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="28">
+      <c r="B44" s="13">
         <v>39</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="36">
         <v>910039</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="28">
+      <c r="B45" s="13">
         <v>40</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="36">
         <v>910040</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="F45" s="33"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="28">
+      <c r="B46" s="13">
         <v>41</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="36">
         <v>910041</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="28">
+      <c r="B47" s="13">
         <v>42</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="36">
         <v>910042</v>
       </c>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="28">
+      <c r="B48" s="13">
         <v>43</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="36">
         <v>910043</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="28">
+      <c r="B49" s="13">
         <v>44</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="36">
         <v>910044</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="28">
+      <c r="B50" s="13">
         <v>45</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="36">
         <v>910045</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="28">
+      <c r="B51" s="13">
         <v>46</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="36">
         <v>910046</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="F51" s="33"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="28">
+      <c r="B52" s="13">
         <v>47</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="36">
         <v>910047</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="F52" s="33"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="28">
+      <c r="B53" s="13">
         <v>48</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="36">
         <v>910048</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="F53" s="33"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="28">
+      <c r="B54" s="13">
         <v>49</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="36">
         <v>910049</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="F54" s="33"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="28">
+      <c r="B55" s="13">
         <v>50</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="36">
         <v>910050</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="F55" s="33"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="28">
+      <c r="B56" s="13">
         <v>51</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="24">
         <v>910051</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="13">
+        <v>52</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="D57" s="24">
+        <v>910052</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="28">
-        <v>52</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="D57" s="39">
-        <v>910052</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>520</v>
-      </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="28">
+      <c r="B58" s="13">
         <v>53</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="24">
         <v>910053</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="26" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="28">
+      <c r="B59" s="13">
         <v>54</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="24">
         <v>910054</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="26" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="24">
+      <c r="B60" s="9">
         <v>55</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="25"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="24">
+      <c r="B61" s="9">
         <v>56</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="24">
+      <c r="B62" s="9">
         <v>57</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="24">
+      <c r="B63" s="9">
         <v>58</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="24">
+      <c r="B64" s="9">
         <v>59</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="24">
+      <c r="B65" s="9">
         <v>60</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="24">
+      <c r="B66" s="9">
         <v>61</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="24">
+      <c r="B67" s="9">
         <v>62</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="24">
+      <c r="B68" s="9">
         <v>63</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="24">
+      <c r="B69" s="9">
         <v>64</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="24">
+      <c r="B70" s="9">
         <v>65</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
